--- a/biology/Médecine/João_Cid_dos_Santos/João_Cid_dos_Santos.xlsx
+++ b/biology/Médecine/João_Cid_dos_Santos/João_Cid_dos_Santos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jo%C3%A3o_Cid_dos_Santos</t>
+          <t>João_Cid_dos_Santos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">João Alfonso Cid dos Santos, né le 5 août 1907 à Lisbonne et mort dans la même ville le 4 novembre 1975, est un médecin et chirurgien portugais, promoteur de l'endartériectomie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jo%C3%A3o_Cid_dos_Santos</t>
+          <t>João_Cid_dos_Santos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Reynaldo dos Santos[1],[2](chirurgien vasculaire, pionnier de l'aortographie en 1929) et de Suzana Cid dos Santos.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Reynaldo dos Santos,(chirurgien vasculaire, pionnier de l'aortographie en 1929) et de Suzana Cid dos Santos.
 Il poursuit ses études à la Faculté de médecine de Lisbonne où il soutient sa thèse en 1933.
 En 1936, il est l'élève de  René Leriche à la Faculté de médecine de Strasbourg. Il y côtoie de grands noms de la chirurgie vasculaire : Jean Kunlin (auteur du premier "bypass" avec greffe de veine), René Fontaine (auteur de la classification de l'ischémie chronique), Jung, Arnulf, et Michael E. DeBakey.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jo%C3%A3o_Cid_dos_Santos</t>
+          <t>João_Cid_dos_Santos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>«Sur la désobstruction des thromboses artérielles anciennes», in: Mem Acad Chir, 73 (1947): 409-411 Texte intégral.
 «Sur quelques vérités premières oubliées ou méconnues de l'anatomo-physiologie normale et Pathologique du système veineux. Leur application à la pathologie et à la thérapeutique», in: Amatus Lusiramis, 7 (1948).</t>
